--- a/report/result/case1.xlsx
+++ b/report/result/case1.xlsx
@@ -22,22 +22,16 @@
     <t>Name</t>
   </si>
   <si>
-    <t>11</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>А.Д.Министратор</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Ruchkin</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Pele</t>
+    <t>ghjk</t>
   </si>
 </sst>
 </file>
@@ -63,44 +57,36 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="n"/>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="n"/>
     </row>
     <row r="2" hidden="false" outlineLevel="0" collapsed="false" customFormat="false" customHeight="false">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="n"/>
+      <c r="E2" t="n">
+        <v>41097.416666666664</v>
+      </c>
+      <c r="F2" t="n"/>
     </row>
     <row r="3" hidden="false" outlineLevel="0" collapsed="false" customFormat="false" customHeight="false">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
+      <c r="A3" t="n"/>
+      <c r="B3" t="n"/>
+      <c r="C3" t="n"/>
+      <c r="D3" t="n"/>
       <c r="E3" t="n"/>
-    </row>
-    <row r="4" hidden="false" outlineLevel="0" collapsed="false" customFormat="false" customHeight="false">
-      <c r="A4" t="n"/>
-      <c r="B4" t="n"/>
-      <c r="C4" t="n"/>
-      <c r="D4" t="n"/>
-      <c r="E4" t="n"/>
+      <c r="F3" t="n"/>
     </row>
   </sheetData>
 </worksheet>
